--- a/templates/excel/4-ccl-p2.xlsx
+++ b/templates/excel/4-ccl-p2.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phpspreadsheet\api\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_lite_8_4\www\spreadsheet-api\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D416F9C-F4CC-4BB7-90EF-BFD4A5124D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="9735"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CCL 4 " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -95,9 +105,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -239,9 +249,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,13 +259,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -265,7 +275,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,48 +286,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -353,7 +354,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -397,7 +404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -436,13 +449,19 @@
     <xdr:ext cx="418336" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -475,13 +494,19 @@
     <xdr:ext cx="418336" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -769,115 +794,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:J24"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="24" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="25"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="20"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -915,7 +940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -929,7 +954,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -943,11 +968,11 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="9">
         <f>SUM(C7:C8)</f>
         <v>0</v>
@@ -971,95 +996,95 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="24" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="24" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="25"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="20"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1111,7 +1136,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1125,11 +1150,11 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="9">
         <f>SUM(C17:C18)</f>
         <v>0</v>
@@ -1153,109 +1178,109 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
       <c r="B24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="24" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="24" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
       <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23" t="s">
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J25" s="20"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +1318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1307,7 +1332,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -1321,11 +1346,11 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="9">
         <f>SUM(C27:C28)</f>
         <v>0</v>
@@ -1349,95 +1374,95 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="24" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="24" t="s">
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J34" s="25"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23" t="s">
+      <c r="F35" s="20"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J35" s="20"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -1475,7 +1500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
@@ -1489,7 +1514,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -1503,11 +1528,11 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="9">
         <f>SUM(C37:C38)</f>
         <v>0</v>
@@ -1533,46 +1558,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
@@ -1589,6 +1574,46 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.7" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
